--- a/Juan/Reviciones/Plantilla_Lista_de_Tareas_de_la_revisión_3.xlsx
+++ b/Juan/Reviciones/Plantilla_Lista_de_Tareas_de_la_revisión_3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juuan\Desktop\6to semstre\Des. Software\Proyecto\EmpenioFacil\Juan\Reviciones\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA487B02-333B-49DA-9491-B6D6A35476AA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DDE5FD6-B8F2-4264-B8AE-8F31250FE437}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="16065" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -179,39 +179,21 @@
     <t>Por iniciar</t>
   </si>
   <si>
-    <t>CU-RP</t>
-  </si>
-  <si>
     <t>Registrar prenda</t>
   </si>
   <si>
-    <t>CU-CPA</t>
-  </si>
-  <si>
     <t>Convertir prenda a articulo</t>
   </si>
   <si>
     <t>Buscar prenda</t>
   </si>
   <si>
-    <t>CU-BP</t>
-  </si>
-  <si>
-    <t>CU-EP</t>
-  </si>
-  <si>
     <t>Eliminar prenda</t>
   </si>
   <si>
-    <t>CU-RC</t>
-  </si>
-  <si>
     <t>Registrar contrato</t>
   </si>
   <si>
-    <t>CU-BC</t>
-  </si>
-  <si>
     <t>Buscar contrato</t>
   </si>
   <si>
@@ -219,6 +201,24 @@
   </si>
   <si>
     <t>Actualizar contrato</t>
+  </si>
+  <si>
+    <t>CU-P-RP</t>
+  </si>
+  <si>
+    <t>CU-P-CPA</t>
+  </si>
+  <si>
+    <t>CU-P-BP</t>
+  </si>
+  <si>
+    <t>CU-P-EP</t>
+  </si>
+  <si>
+    <t>CU-C-RC</t>
+  </si>
+  <si>
+    <t>CU-C-BC</t>
   </si>
 </sst>
 </file>
@@ -257,7 +257,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -285,6 +285,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -366,7 +372,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -397,14 +403,20 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -713,10 +725,10 @@
   <dimension ref="B1:BA28"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="6" ySplit="5" topLeftCell="G7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="5" topLeftCell="G6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="G6" sqref="G6:G27"/>
+      <selection pane="bottomRight" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -727,7 +739,7 @@
     <col min="4" max="4" width="19.28515625" style="2" customWidth="1"/>
     <col min="5" max="5" width="12.7109375" style="2" customWidth="1"/>
     <col min="6" max="6" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.42578125" style="2" customWidth="1"/>
     <col min="8" max="8" width="5.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="5.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="2.7109375" style="2" customWidth="1"/>
@@ -797,84 +809,84 @@
       <c r="C4" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="H4" s="14" t="s">
+      <c r="H4" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="15"/>
+      <c r="I4" s="16"/>
       <c r="J4" s="9"/>
-      <c r="K4" s="14" t="s">
+      <c r="K4" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="L4" s="15"/>
+      <c r="L4" s="16"/>
       <c r="M4" s="9"/>
-      <c r="N4" s="14" t="s">
+      <c r="N4" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="15"/>
+      <c r="O4" s="16"/>
       <c r="P4" s="9"/>
-      <c r="Q4" s="14" t="s">
+      <c r="Q4" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="R4" s="15"/>
+      <c r="R4" s="16"/>
       <c r="S4" s="9"/>
-      <c r="T4" s="14" t="s">
+      <c r="T4" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="U4" s="15"/>
+      <c r="U4" s="16"/>
       <c r="V4" s="9"/>
-      <c r="W4" s="14" t="s">
+      <c r="W4" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="X4" s="15"/>
+      <c r="X4" s="16"/>
       <c r="Y4" s="9"/>
-      <c r="Z4" s="14" t="s">
+      <c r="Z4" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="AA4" s="15"/>
+      <c r="AA4" s="16"/>
       <c r="AB4" s="9"/>
-      <c r="AC4" s="14" t="s">
+      <c r="AC4" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="AD4" s="15"/>
+      <c r="AD4" s="16"/>
       <c r="AE4" s="9"/>
-      <c r="AF4" s="14" t="s">
+      <c r="AF4" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="AG4" s="15"/>
+      <c r="AG4" s="16"/>
       <c r="AH4" s="9"/>
-      <c r="AI4" s="14" t="s">
+      <c r="AI4" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="AJ4" s="15"/>
+      <c r="AJ4" s="16"/>
       <c r="AK4" s="9"/>
-      <c r="AL4" s="14" t="s">
+      <c r="AL4" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="AM4" s="15"/>
+      <c r="AM4" s="16"/>
       <c r="AN4" s="9"/>
-      <c r="AO4" s="14" t="s">
+      <c r="AO4" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="AP4" s="15"/>
+      <c r="AP4" s="16"/>
       <c r="AQ4" s="9"/>
-      <c r="AR4" s="14" t="s">
+      <c r="AR4" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="AS4" s="15"/>
+      <c r="AS4" s="16"/>
       <c r="AT4" s="9"/>
-      <c r="AU4" s="14" t="s">
+      <c r="AU4" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="AV4" s="15"/>
+      <c r="AV4" s="16"/>
       <c r="AW4" s="9"/>
-      <c r="AX4" s="14" t="s">
+      <c r="AX4" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="AY4" s="15"/>
-      <c r="AZ4" s="14" t="s">
+      <c r="AY4" s="16"/>
+      <c r="AZ4" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="BA4" s="15"/>
+      <c r="BA4" s="16"/>
     </row>
     <row r="5" spans="2:53" ht="30" x14ac:dyDescent="0.25">
       <c r="B5" s="6" t="s">
@@ -1008,15 +1020,15 @@
     </row>
     <row r="6" spans="2:53" ht="45" x14ac:dyDescent="0.25">
       <c r="B6" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>47</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>48</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="14" t="s">
         <v>42</v>
       </c>
       <c r="F6" s="5" t="s">
@@ -1129,7 +1141,7 @@
       <c r="D7" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="14" t="s">
         <v>42</v>
       </c>
       <c r="F7" s="5" t="s">
@@ -1242,7 +1254,7 @@
       <c r="D8" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="E8" s="16" t="s">
+      <c r="E8" s="14" t="s">
         <v>42</v>
       </c>
       <c r="F8" s="5" t="s">
@@ -1351,15 +1363,15 @@
     </row>
     <row r="9" spans="2:53" ht="45" x14ac:dyDescent="0.25">
       <c r="B9" s="13" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E9" s="16" t="s">
+      <c r="E9" s="14" t="s">
         <v>42</v>
       </c>
       <c r="F9" s="5" t="s">
@@ -1472,7 +1484,7 @@
       <c r="D10" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E10" s="16" t="s">
+      <c r="E10" s="14" t="s">
         <v>42</v>
       </c>
       <c r="F10" s="5" t="s">
@@ -1585,7 +1597,7 @@
       <c r="D11" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="14" t="s">
         <v>42</v>
       </c>
       <c r="F11" s="5" t="s">
@@ -1694,15 +1706,15 @@
     </row>
     <row r="12" spans="2:53" ht="45" x14ac:dyDescent="0.25">
       <c r="B12" s="13" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E12" s="16" t="s">
+      <c r="E12" s="14" t="s">
         <v>42</v>
       </c>
       <c r="F12" s="5" t="s">
@@ -1815,7 +1827,7 @@
       <c r="D13" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E13" s="16" t="s">
+      <c r="E13" s="14" t="s">
         <v>42</v>
       </c>
       <c r="F13" s="5" t="s">
@@ -1928,7 +1940,7 @@
       <c r="D14" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="E14" s="16" t="s">
+      <c r="E14" s="14" t="s">
         <v>42</v>
       </c>
       <c r="F14" s="5" t="s">
@@ -2037,15 +2049,15 @@
     </row>
     <row r="15" spans="2:53" ht="45" x14ac:dyDescent="0.25">
       <c r="B15" s="13" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E15" s="16" t="s">
+      <c r="E15" s="14" t="s">
         <v>42</v>
       </c>
       <c r="F15" s="5" t="s">
@@ -2158,7 +2170,7 @@
       <c r="D16" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="14" t="s">
         <v>42</v>
       </c>
       <c r="F16" s="5" t="s">
@@ -2271,7 +2283,7 @@
       <c r="D17" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="14" t="s">
         <v>42</v>
       </c>
       <c r="F17" s="5" t="s">
@@ -2380,15 +2392,15 @@
     </row>
     <row r="18" spans="2:53" ht="45" x14ac:dyDescent="0.25">
       <c r="B18" s="13" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="E18" s="14" t="s">
         <v>42</v>
       </c>
       <c r="F18" s="5" t="s">
@@ -2501,7 +2513,7 @@
       <c r="D19" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="14" t="s">
         <v>42</v>
       </c>
       <c r="F19" s="5" t="s">
@@ -2614,7 +2626,7 @@
       <c r="D20" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="14" t="s">
         <v>42</v>
       </c>
       <c r="F20" s="5" t="s">
@@ -2723,15 +2735,15 @@
     </row>
     <row r="21" spans="2:53" ht="45" x14ac:dyDescent="0.25">
       <c r="B21" s="13" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E21" s="16" t="s">
+      <c r="E21" s="14" t="s">
         <v>42</v>
       </c>
       <c r="F21" s="5" t="s">
@@ -2844,7 +2856,7 @@
       <c r="D22" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E22" s="16" t="s">
+      <c r="E22" s="14" t="s">
         <v>42</v>
       </c>
       <c r="F22" s="5" t="s">
@@ -2957,7 +2969,7 @@
       <c r="D23" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="E23" s="16" t="s">
+      <c r="E23" s="14" t="s">
         <v>42</v>
       </c>
       <c r="F23" s="5" t="s">
@@ -3065,16 +3077,16 @@
       </c>
     </row>
     <row r="24" spans="2:53" ht="45" x14ac:dyDescent="0.25">
-      <c r="B24" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>60</v>
+      <c r="B24" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>54</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E24" s="16" t="s">
+      <c r="E24" s="14" t="s">
         <v>42</v>
       </c>
       <c r="F24" s="5" t="s">
@@ -3187,7 +3199,7 @@
       <c r="D25" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E25" s="16" t="s">
+      <c r="E25" s="14" t="s">
         <v>42</v>
       </c>
       <c r="F25" s="5" t="s">
@@ -3300,7 +3312,7 @@
       <c r="D26" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="E26" s="16" t="s">
+      <c r="E26" s="14" t="s">
         <v>42</v>
       </c>
       <c r="F26" s="5" t="s">
@@ -3413,7 +3425,7 @@
       <c r="D27" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E27" s="16" t="s">
+      <c r="E27" s="14" t="s">
         <v>42</v>
       </c>
       <c r="F27" s="5" t="s">
@@ -3629,11 +3641,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="AZ4:BA4"/>
-    <mergeCell ref="AO4:AP4"/>
-    <mergeCell ref="AR4:AS4"/>
-    <mergeCell ref="AU4:AV4"/>
-    <mergeCell ref="AX4:AY4"/>
     <mergeCell ref="AL4:AM4"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="K4:L4"/>
@@ -3645,6 +3652,11 @@
     <mergeCell ref="AC4:AD4"/>
     <mergeCell ref="AF4:AG4"/>
     <mergeCell ref="AI4:AJ4"/>
+    <mergeCell ref="AZ4:BA4"/>
+    <mergeCell ref="AO4:AP4"/>
+    <mergeCell ref="AR4:AS4"/>
+    <mergeCell ref="AU4:AV4"/>
+    <mergeCell ref="AX4:AY4"/>
   </mergeCells>
   <pageMargins left="0.62992125984251968" right="0.62992125984251968" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>

--- a/Juan/Reviciones/Plantilla_Lista_de_Tareas_de_la_revisión_3.xlsx
+++ b/Juan/Reviciones/Plantilla_Lista_de_Tareas_de_la_revisión_3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juuan\Desktop\6to semstre\Des. Software\Proyecto\EmpenioFacil\Juan\Reviciones\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DDE5FD6-B8F2-4264-B8AE-8F31250FE437}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1770C9CC-C58A-47BF-BE81-923260454281}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="16065" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Instructivo" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Casos de Uso'!$A$1:$BB$30</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Casos de Uso'!$A$1:$BB$29</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Instructivo!$A$1:$D$15</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Casos de Uso'!$B:$F,'Casos de Uso'!$1:$5</definedName>
   </definedNames>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="64">
   <si>
     <t>Columna</t>
   </si>
@@ -219,6 +219,15 @@
   </si>
   <si>
     <t>CU-C-BC</t>
+  </si>
+  <si>
+    <t>Hecho</t>
+  </si>
+  <si>
+    <t>Cancelado</t>
+  </si>
+  <si>
+    <t>En proceso</t>
   </si>
 </sst>
 </file>
@@ -722,13 +731,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:BA28"/>
+  <dimension ref="B1:BA27"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="6" ySplit="5" topLeftCell="G6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="5" topLeftCell="G19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="C7" sqref="C7"/>
+      <selection pane="bottomRight" activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1032,7 +1041,7 @@
         <v>42</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="G6" s="5">
         <v>60</v>
@@ -1045,94 +1054,96 @@
       <c r="J6" s="10"/>
       <c r="K6" s="8"/>
       <c r="L6" s="8">
-        <f t="shared" ref="L6:L28" si="0">I6-K6</f>
+        <f t="shared" ref="L6:L27" si="0">I6-K6</f>
         <v>60</v>
       </c>
       <c r="M6" s="10"/>
       <c r="N6" s="8"/>
       <c r="O6" s="8">
-        <f t="shared" ref="O6:O28" si="1">L6-N6</f>
+        <f t="shared" ref="O6:O27" si="1">L6-N6</f>
         <v>60</v>
       </c>
       <c r="P6" s="10"/>
       <c r="Q6" s="8"/>
       <c r="R6" s="8">
-        <f t="shared" ref="R6:R28" si="2">O6-Q6</f>
+        <f t="shared" ref="R6:R27" si="2">O6-Q6</f>
         <v>60</v>
       </c>
       <c r="S6" s="10"/>
       <c r="T6" s="8"/>
       <c r="U6" s="8">
-        <f t="shared" ref="U6:U28" si="3">R6-T6</f>
+        <f t="shared" ref="U6:U27" si="3">R6-T6</f>
         <v>60</v>
       </c>
       <c r="V6" s="10"/>
       <c r="W6" s="8"/>
       <c r="X6" s="8">
-        <f t="shared" ref="X6:X28" si="4">U6-W6</f>
+        <f t="shared" ref="X6:X27" si="4">U6-W6</f>
         <v>60</v>
       </c>
       <c r="Y6" s="10"/>
-      <c r="Z6" s="8"/>
+      <c r="Z6" s="8">
+        <v>18</v>
+      </c>
       <c r="AA6" s="8">
-        <f t="shared" ref="AA6:AA28" si="5">X6-Z6</f>
-        <v>60</v>
+        <f t="shared" ref="AA6:AA27" si="5">X6-Z6</f>
+        <v>42</v>
       </c>
       <c r="AB6" s="10"/>
       <c r="AC6" s="8"/>
       <c r="AD6" s="8">
-        <f t="shared" ref="AD6:AD28" si="6">AA6-AC6</f>
-        <v>60</v>
+        <f t="shared" ref="AD6:AD27" si="6">AA6-AC6</f>
+        <v>42</v>
       </c>
       <c r="AE6" s="10"/>
       <c r="AF6" s="8"/>
       <c r="AG6" s="8">
-        <f t="shared" ref="AG6:AG28" si="7">AD6-AF6</f>
-        <v>60</v>
+        <f t="shared" ref="AG6:AG27" si="7">AD6-AF6</f>
+        <v>42</v>
       </c>
       <c r="AH6" s="10"/>
       <c r="AI6" s="8"/>
       <c r="AJ6" s="8">
-        <f t="shared" ref="AJ6:AJ28" si="8">AG6-AI6</f>
-        <v>60</v>
+        <f t="shared" ref="AJ6:AJ27" si="8">AG6-AI6</f>
+        <v>42</v>
       </c>
       <c r="AK6" s="10"/>
       <c r="AL6" s="8"/>
       <c r="AM6" s="8">
-        <f t="shared" ref="AM6:AM28" si="9">AJ6-AL6</f>
-        <v>60</v>
+        <f t="shared" ref="AM6:AM27" si="9">AJ6-AL6</f>
+        <v>42</v>
       </c>
       <c r="AN6" s="10"/>
       <c r="AO6" s="8"/>
       <c r="AP6" s="8">
-        <f t="shared" ref="AP6:AP28" si="10">AM6-AO6</f>
-        <v>60</v>
+        <f t="shared" ref="AP6:AP27" si="10">AM6-AO6</f>
+        <v>42</v>
       </c>
       <c r="AQ6" s="10"/>
       <c r="AR6" s="8"/>
       <c r="AS6" s="8">
-        <f t="shared" ref="AS6:AS28" si="11">AP6-AR6</f>
-        <v>60</v>
+        <f t="shared" ref="AS6:AS27" si="11">AP6-AR6</f>
+        <v>42</v>
       </c>
       <c r="AT6" s="10"/>
       <c r="AU6" s="8"/>
       <c r="AV6" s="8">
-        <f t="shared" ref="AV6:AV28" si="12">AS6-AU6</f>
-        <v>60</v>
+        <f t="shared" ref="AV6:AV27" si="12">AS6-AU6</f>
+        <v>42</v>
       </c>
       <c r="AW6" s="10"/>
       <c r="AX6" s="8"/>
       <c r="AY6" s="8">
-        <f t="shared" ref="AY6:AY28" si="13">AV6-AX6</f>
-        <v>60</v>
+        <f t="shared" ref="AY6:AY27" si="13">AV6-AX6</f>
+        <v>42</v>
       </c>
       <c r="AZ6" s="11">
         <f t="shared" ref="AZ6:AZ15" si="14">H6+K6+N6+Q6+T6+W6+Z6+AC6+AF6+AI6+AL6+AO6+AR6+AU6+AX6</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="BA6" s="11">
-        <f t="shared" ref="BA6:BA28" si="15">G6-AZ6</f>
-        <v>60</v>
+        <f t="shared" ref="BA6:BA27" si="15">G6-AZ6</f>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="2:53" ht="45" x14ac:dyDescent="0.25">
@@ -1145,14 +1156,14 @@
         <v>42</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="G7" s="5">
         <v>60</v>
       </c>
       <c r="H7" s="8"/>
       <c r="I7" s="8">
-        <f t="shared" ref="I7:I28" si="16">G7-H7</f>
+        <f t="shared" ref="I7:I27" si="16">G7-H7</f>
         <v>60</v>
       </c>
       <c r="J7" s="10"/>
@@ -1192,60 +1203,62 @@
         <v>60</v>
       </c>
       <c r="AB7" s="10"/>
-      <c r="AC7" s="8"/>
+      <c r="AC7" s="8">
+        <v>10</v>
+      </c>
       <c r="AD7" s="8">
         <f t="shared" si="6"/>
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AE7" s="10"/>
       <c r="AF7" s="8"/>
       <c r="AG7" s="8">
         <f t="shared" si="7"/>
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AH7" s="10"/>
       <c r="AI7" s="8"/>
       <c r="AJ7" s="8">
         <f t="shared" si="8"/>
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AK7" s="10"/>
       <c r="AL7" s="8"/>
       <c r="AM7" s="8">
         <f t="shared" si="9"/>
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AN7" s="10"/>
       <c r="AO7" s="8"/>
       <c r="AP7" s="8">
         <f t="shared" si="10"/>
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AQ7" s="10"/>
       <c r="AR7" s="8"/>
       <c r="AS7" s="8">
         <f t="shared" si="11"/>
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AT7" s="10"/>
       <c r="AU7" s="8"/>
       <c r="AV7" s="8">
         <f t="shared" si="12"/>
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AW7" s="10"/>
       <c r="AX7" s="8"/>
       <c r="AY7" s="8">
         <f t="shared" si="13"/>
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AZ7" s="11">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BA7" s="11">
         <f t="shared" si="15"/>
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="2:53" ht="45" x14ac:dyDescent="0.25">
@@ -1258,7 +1271,7 @@
         <v>42</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="G8" s="5">
         <v>60</v>
@@ -1305,60 +1318,62 @@
         <v>60</v>
       </c>
       <c r="AB8" s="10"/>
-      <c r="AC8" s="8"/>
+      <c r="AC8" s="8">
+        <v>15</v>
+      </c>
       <c r="AD8" s="8">
         <f t="shared" si="6"/>
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="AE8" s="10"/>
       <c r="AF8" s="8"/>
       <c r="AG8" s="8">
         <f t="shared" si="7"/>
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="AH8" s="10"/>
       <c r="AI8" s="8"/>
       <c r="AJ8" s="8">
         <f t="shared" si="8"/>
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="AK8" s="10"/>
       <c r="AL8" s="8"/>
       <c r="AM8" s="8">
         <f t="shared" si="9"/>
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="AN8" s="10"/>
       <c r="AO8" s="8"/>
       <c r="AP8" s="8">
         <f t="shared" si="10"/>
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="AQ8" s="10"/>
       <c r="AR8" s="8"/>
       <c r="AS8" s="8">
         <f t="shared" si="11"/>
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="AT8" s="10"/>
       <c r="AU8" s="8"/>
       <c r="AV8" s="8">
         <f t="shared" si="12"/>
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="AW8" s="10"/>
       <c r="AX8" s="8"/>
       <c r="AY8" s="8">
         <f t="shared" si="13"/>
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="AZ8" s="11">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="BA8" s="11">
         <f t="shared" si="15"/>
-        <v>60</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="2:53" ht="45" x14ac:dyDescent="0.25">
@@ -1375,7 +1390,7 @@
         <v>42</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="G9" s="5">
         <v>60</v>
@@ -1416,66 +1431,68 @@
         <v>60</v>
       </c>
       <c r="Y9" s="10"/>
-      <c r="Z9" s="8"/>
+      <c r="Z9" s="8">
+        <v>20</v>
+      </c>
       <c r="AA9" s="8">
         <f t="shared" si="5"/>
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="AB9" s="10"/>
       <c r="AC9" s="8"/>
       <c r="AD9" s="8">
         <f t="shared" si="6"/>
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="AE9" s="10"/>
       <c r="AF9" s="8"/>
       <c r="AG9" s="8">
         <f t="shared" si="7"/>
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="AH9" s="10"/>
       <c r="AI9" s="8"/>
       <c r="AJ9" s="8">
         <f t="shared" si="8"/>
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="AK9" s="10"/>
       <c r="AL9" s="8"/>
       <c r="AM9" s="8">
         <f t="shared" si="9"/>
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="AN9" s="10"/>
       <c r="AO9" s="8"/>
       <c r="AP9" s="8">
         <f t="shared" si="10"/>
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="AQ9" s="10"/>
       <c r="AR9" s="8"/>
       <c r="AS9" s="8">
         <f t="shared" si="11"/>
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="AT9" s="10"/>
       <c r="AU9" s="8"/>
       <c r="AV9" s="8">
         <f t="shared" si="12"/>
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="AW9" s="10"/>
       <c r="AX9" s="8"/>
       <c r="AY9" s="8">
         <f t="shared" si="13"/>
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="AZ9" s="11">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="BA9" s="11">
         <f t="shared" si="15"/>
-        <v>60</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="2:53" ht="45" x14ac:dyDescent="0.25">
@@ -1488,7 +1505,7 @@
         <v>42</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="G10" s="5">
         <v>60</v>
@@ -1535,60 +1552,62 @@
         <v>60</v>
       </c>
       <c r="AB10" s="10"/>
-      <c r="AC10" s="8"/>
+      <c r="AC10" s="8">
+        <v>10</v>
+      </c>
       <c r="AD10" s="8">
         <f t="shared" si="6"/>
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AE10" s="10"/>
       <c r="AF10" s="8"/>
       <c r="AG10" s="8">
         <f t="shared" si="7"/>
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AH10" s="10"/>
       <c r="AI10" s="8"/>
       <c r="AJ10" s="8">
         <f t="shared" si="8"/>
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AK10" s="10"/>
       <c r="AL10" s="8"/>
       <c r="AM10" s="8">
         <f t="shared" si="9"/>
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AN10" s="10"/>
       <c r="AO10" s="8"/>
       <c r="AP10" s="8">
         <f t="shared" si="10"/>
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AQ10" s="10"/>
       <c r="AR10" s="8"/>
       <c r="AS10" s="8">
         <f t="shared" si="11"/>
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AT10" s="10"/>
       <c r="AU10" s="8"/>
       <c r="AV10" s="8">
         <f t="shared" si="12"/>
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AW10" s="10"/>
       <c r="AX10" s="8"/>
       <c r="AY10" s="8">
         <f t="shared" si="13"/>
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AZ10" s="11">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BA10" s="11">
         <f t="shared" si="15"/>
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="2:53" ht="45" x14ac:dyDescent="0.25">
@@ -1601,7 +1620,7 @@
         <v>42</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="G11" s="5">
         <v>60</v>
@@ -1648,60 +1667,62 @@
         <v>60</v>
       </c>
       <c r="AB11" s="10"/>
-      <c r="AC11" s="8"/>
+      <c r="AC11" s="8">
+        <v>15</v>
+      </c>
       <c r="AD11" s="8">
         <f t="shared" si="6"/>
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="AE11" s="10"/>
       <c r="AF11" s="8"/>
       <c r="AG11" s="8">
         <f t="shared" si="7"/>
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="AH11" s="10"/>
       <c r="AI11" s="8"/>
       <c r="AJ11" s="8">
         <f t="shared" si="8"/>
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="AK11" s="10"/>
       <c r="AL11" s="8"/>
       <c r="AM11" s="8">
         <f t="shared" si="9"/>
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="AN11" s="10"/>
       <c r="AO11" s="8"/>
       <c r="AP11" s="8">
         <f t="shared" si="10"/>
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="AQ11" s="10"/>
       <c r="AR11" s="8"/>
       <c r="AS11" s="8">
         <f t="shared" si="11"/>
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="AT11" s="10"/>
       <c r="AU11" s="8"/>
       <c r="AV11" s="8">
         <f t="shared" si="12"/>
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="AW11" s="10"/>
       <c r="AX11" s="8"/>
       <c r="AY11" s="8">
         <f t="shared" si="13"/>
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="AZ11" s="11">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="BA11" s="11">
         <f t="shared" si="15"/>
-        <v>60</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="2:53" ht="45" x14ac:dyDescent="0.25">
@@ -1718,7 +1739,7 @@
         <v>42</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="G12" s="5">
         <v>60</v>
@@ -1759,66 +1780,68 @@
         <v>60</v>
       </c>
       <c r="Y12" s="10"/>
-      <c r="Z12" s="8"/>
+      <c r="Z12" s="8">
+        <v>15</v>
+      </c>
       <c r="AA12" s="8">
         <f t="shared" si="5"/>
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="AB12" s="10"/>
       <c r="AC12" s="8"/>
       <c r="AD12" s="8">
         <f t="shared" si="6"/>
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="AE12" s="10"/>
       <c r="AF12" s="8"/>
       <c r="AG12" s="8">
         <f t="shared" si="7"/>
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="AH12" s="10"/>
       <c r="AI12" s="8"/>
       <c r="AJ12" s="8">
         <f t="shared" si="8"/>
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="AK12" s="10"/>
       <c r="AL12" s="8"/>
       <c r="AM12" s="8">
         <f t="shared" si="9"/>
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="AN12" s="10"/>
       <c r="AO12" s="8"/>
       <c r="AP12" s="8">
         <f t="shared" si="10"/>
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="AQ12" s="10"/>
       <c r="AR12" s="8"/>
       <c r="AS12" s="8">
         <f t="shared" si="11"/>
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="AT12" s="10"/>
       <c r="AU12" s="8"/>
       <c r="AV12" s="8">
         <f t="shared" si="12"/>
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="AW12" s="10"/>
       <c r="AX12" s="8"/>
       <c r="AY12" s="8">
         <f t="shared" si="13"/>
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="AZ12" s="11">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="BA12" s="11">
         <f t="shared" si="15"/>
-        <v>60</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="2:53" ht="45" x14ac:dyDescent="0.25">
@@ -1831,7 +1854,7 @@
         <v>42</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="G13" s="5">
         <v>60</v>
@@ -1878,60 +1901,62 @@
         <v>60</v>
       </c>
       <c r="AB13" s="10"/>
-      <c r="AC13" s="8"/>
+      <c r="AC13" s="8">
+        <v>15</v>
+      </c>
       <c r="AD13" s="8">
         <f t="shared" si="6"/>
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="AE13" s="10"/>
       <c r="AF13" s="8"/>
       <c r="AG13" s="8">
         <f t="shared" si="7"/>
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="AH13" s="10"/>
       <c r="AI13" s="8"/>
       <c r="AJ13" s="8">
         <f t="shared" si="8"/>
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="AK13" s="10"/>
       <c r="AL13" s="8"/>
       <c r="AM13" s="8">
         <f t="shared" si="9"/>
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="AN13" s="10"/>
       <c r="AO13" s="8"/>
       <c r="AP13" s="8">
         <f t="shared" si="10"/>
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="AQ13" s="10"/>
       <c r="AR13" s="8"/>
       <c r="AS13" s="8">
         <f t="shared" si="11"/>
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="AT13" s="10"/>
       <c r="AU13" s="8"/>
       <c r="AV13" s="8">
         <f t="shared" si="12"/>
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="AW13" s="10"/>
       <c r="AX13" s="8"/>
       <c r="AY13" s="8">
         <f t="shared" si="13"/>
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="AZ13" s="11">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="BA13" s="11">
         <f t="shared" si="15"/>
-        <v>60</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="2:53" ht="45" x14ac:dyDescent="0.25">
@@ -1944,7 +1969,7 @@
         <v>42</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="G14" s="5">
         <v>60</v>
@@ -1991,60 +2016,62 @@
         <v>60</v>
       </c>
       <c r="AB14" s="10"/>
-      <c r="AC14" s="8"/>
+      <c r="AC14" s="8">
+        <v>20</v>
+      </c>
       <c r="AD14" s="8">
         <f t="shared" ref="AD14" si="24">AA14-AC14</f>
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="AE14" s="10"/>
       <c r="AF14" s="8"/>
       <c r="AG14" s="8">
         <f t="shared" ref="AG14" si="25">AD14-AF14</f>
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="AH14" s="10"/>
       <c r="AI14" s="8"/>
       <c r="AJ14" s="8">
         <f t="shared" ref="AJ14" si="26">AG14-AI14</f>
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="AK14" s="10"/>
       <c r="AL14" s="8"/>
       <c r="AM14" s="8">
         <f t="shared" ref="AM14" si="27">AJ14-AL14</f>
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="AN14" s="10"/>
       <c r="AO14" s="8"/>
       <c r="AP14" s="8">
         <f t="shared" ref="AP14" si="28">AM14-AO14</f>
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="AQ14" s="10"/>
       <c r="AR14" s="8"/>
       <c r="AS14" s="8">
         <f t="shared" ref="AS14" si="29">AP14-AR14</f>
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="AT14" s="10"/>
       <c r="AU14" s="8"/>
       <c r="AV14" s="8">
         <f t="shared" ref="AV14" si="30">AS14-AU14</f>
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="AW14" s="10"/>
       <c r="AX14" s="8"/>
       <c r="AY14" s="8">
         <f t="shared" ref="AY14" si="31">AV14-AX14</f>
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="AZ14" s="11">
         <f t="shared" ref="AZ14" si="32">H14+K14+N14+Q14+T14+W14+Z14+AC14+AF14+AI14+AL14+AO14+AR14+AU14+AX14</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="BA14" s="11">
         <f t="shared" ref="BA14" si="33">G14-AZ14</f>
-        <v>60</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="2:53" ht="45" x14ac:dyDescent="0.25">
@@ -2061,7 +2088,7 @@
         <v>42</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="G15" s="5">
         <v>60</v>
@@ -2102,66 +2129,68 @@
         <v>60</v>
       </c>
       <c r="Y15" s="10"/>
-      <c r="Z15" s="8"/>
+      <c r="Z15" s="8">
+        <v>15</v>
+      </c>
       <c r="AA15" s="8">
         <f t="shared" si="5"/>
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="AB15" s="10"/>
       <c r="AC15" s="8"/>
       <c r="AD15" s="8">
         <f t="shared" si="6"/>
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="AE15" s="10"/>
       <c r="AF15" s="8"/>
       <c r="AG15" s="8">
         <f t="shared" si="7"/>
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="AH15" s="10"/>
       <c r="AI15" s="8"/>
       <c r="AJ15" s="8">
         <f t="shared" si="8"/>
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="AK15" s="10"/>
       <c r="AL15" s="8"/>
       <c r="AM15" s="8">
         <f t="shared" si="9"/>
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="AN15" s="10"/>
       <c r="AO15" s="8"/>
       <c r="AP15" s="8">
         <f t="shared" si="10"/>
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="AQ15" s="10"/>
       <c r="AR15" s="8"/>
       <c r="AS15" s="8">
         <f t="shared" si="11"/>
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="AT15" s="10"/>
       <c r="AU15" s="8"/>
       <c r="AV15" s="8">
         <f t="shared" si="12"/>
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="AW15" s="10"/>
       <c r="AX15" s="8"/>
       <c r="AY15" s="8">
         <f t="shared" si="13"/>
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="AZ15" s="11">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="BA15" s="11">
         <f t="shared" si="15"/>
-        <v>60</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="2:53" ht="45" x14ac:dyDescent="0.25">
@@ -2174,7 +2203,7 @@
         <v>42</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="G16" s="5">
         <v>60</v>
@@ -2221,60 +2250,62 @@
         <v>60</v>
       </c>
       <c r="AB16" s="10"/>
-      <c r="AC16" s="8"/>
+      <c r="AC16" s="8">
+        <v>10</v>
+      </c>
       <c r="AD16" s="8">
         <f t="shared" ref="AD16:AD23" si="41">AA16-AC16</f>
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AE16" s="10"/>
       <c r="AF16" s="8"/>
       <c r="AG16" s="8">
         <f t="shared" ref="AG16:AG23" si="42">AD16-AF16</f>
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AH16" s="10"/>
       <c r="AI16" s="8"/>
       <c r="AJ16" s="8">
         <f t="shared" ref="AJ16:AJ23" si="43">AG16-AI16</f>
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AK16" s="10"/>
       <c r="AL16" s="8"/>
       <c r="AM16" s="8">
         <f t="shared" ref="AM16:AM23" si="44">AJ16-AL16</f>
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AN16" s="10"/>
       <c r="AO16" s="8"/>
       <c r="AP16" s="8">
         <f t="shared" ref="AP16:AP23" si="45">AM16-AO16</f>
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AQ16" s="10"/>
       <c r="AR16" s="8"/>
       <c r="AS16" s="8">
         <f t="shared" ref="AS16:AS23" si="46">AP16-AR16</f>
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AT16" s="10"/>
       <c r="AU16" s="8"/>
       <c r="AV16" s="8">
         <f t="shared" ref="AV16:AV23" si="47">AS16-AU16</f>
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AW16" s="10"/>
       <c r="AX16" s="8"/>
       <c r="AY16" s="8">
         <f t="shared" ref="AY16:AY23" si="48">AV16-AX16</f>
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AZ16" s="11">
         <f t="shared" ref="AZ16:AZ23" si="49">H16+K16+N16+Q16+T16+W16+Z16+AC16+AF16+AI16+AL16+AO16+AR16+AU16+AX16</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BA16" s="11">
         <f t="shared" ref="BA16:BA23" si="50">G16-AZ16</f>
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="2:53" ht="45" x14ac:dyDescent="0.25">
@@ -2287,7 +2318,7 @@
         <v>42</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="G17" s="5">
         <v>60</v>
@@ -2334,60 +2365,62 @@
         <v>60</v>
       </c>
       <c r="AB17" s="10"/>
-      <c r="AC17" s="8"/>
+      <c r="AC17" s="8">
+        <v>10</v>
+      </c>
       <c r="AD17" s="8">
         <f t="shared" si="41"/>
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AE17" s="10"/>
       <c r="AF17" s="8"/>
       <c r="AG17" s="8">
         <f t="shared" si="42"/>
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AH17" s="10"/>
       <c r="AI17" s="8"/>
       <c r="AJ17" s="8">
         <f t="shared" si="43"/>
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AK17" s="10"/>
       <c r="AL17" s="8"/>
       <c r="AM17" s="8">
         <f t="shared" si="44"/>
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AN17" s="10"/>
       <c r="AO17" s="8"/>
       <c r="AP17" s="8">
         <f t="shared" si="45"/>
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AQ17" s="10"/>
       <c r="AR17" s="8"/>
       <c r="AS17" s="8">
         <f t="shared" si="46"/>
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AT17" s="10"/>
       <c r="AU17" s="8"/>
       <c r="AV17" s="8">
         <f t="shared" si="47"/>
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AW17" s="10"/>
       <c r="AX17" s="8"/>
       <c r="AY17" s="8">
         <f t="shared" si="48"/>
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AZ17" s="11">
         <f t="shared" si="49"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BA17" s="11">
         <f t="shared" si="50"/>
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="2:53" ht="45" x14ac:dyDescent="0.25">
@@ -2404,7 +2437,7 @@
         <v>42</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="G18" s="5">
         <v>60</v>
@@ -2445,66 +2478,68 @@
         <v>60</v>
       </c>
       <c r="Y18" s="10"/>
-      <c r="Z18" s="8"/>
+      <c r="Z18" s="8">
+        <v>30</v>
+      </c>
       <c r="AA18" s="8">
         <f t="shared" si="40"/>
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="AB18" s="10"/>
       <c r="AC18" s="8"/>
       <c r="AD18" s="8">
         <f t="shared" si="41"/>
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="AE18" s="10"/>
       <c r="AF18" s="8"/>
       <c r="AG18" s="8">
         <f t="shared" si="42"/>
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="AH18" s="10"/>
       <c r="AI18" s="8"/>
       <c r="AJ18" s="8">
         <f t="shared" si="43"/>
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="AK18" s="10"/>
       <c r="AL18" s="8"/>
       <c r="AM18" s="8">
         <f t="shared" si="44"/>
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="AN18" s="10"/>
       <c r="AO18" s="8"/>
       <c r="AP18" s="8">
         <f t="shared" si="45"/>
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="AQ18" s="10"/>
       <c r="AR18" s="8"/>
       <c r="AS18" s="8">
         <f t="shared" si="46"/>
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="AT18" s="10"/>
       <c r="AU18" s="8"/>
       <c r="AV18" s="8">
         <f t="shared" si="47"/>
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="AW18" s="10"/>
       <c r="AX18" s="8"/>
       <c r="AY18" s="8">
         <f t="shared" si="48"/>
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="AZ18" s="11">
         <f t="shared" si="49"/>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="BA18" s="11">
         <f t="shared" si="50"/>
-        <v>60</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="2:53" ht="45" x14ac:dyDescent="0.25">
@@ -2517,7 +2552,7 @@
         <v>42</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="G19" s="5">
         <v>60</v>
@@ -2747,7 +2782,7 @@
         <v>42</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="G21" s="5">
         <v>60</v>
@@ -2788,66 +2823,68 @@
         <v>60</v>
       </c>
       <c r="Y21" s="10"/>
-      <c r="Z21" s="8"/>
+      <c r="Z21" s="8">
+        <v>25</v>
+      </c>
       <c r="AA21" s="8">
         <f t="shared" si="40"/>
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="AB21" s="10"/>
       <c r="AC21" s="8"/>
       <c r="AD21" s="8">
         <f t="shared" si="41"/>
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="AE21" s="10"/>
       <c r="AF21" s="8"/>
       <c r="AG21" s="8">
         <f t="shared" si="42"/>
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="AH21" s="10"/>
       <c r="AI21" s="8"/>
       <c r="AJ21" s="8">
         <f t="shared" si="43"/>
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="AK21" s="10"/>
       <c r="AL21" s="8"/>
       <c r="AM21" s="8">
         <f t="shared" si="44"/>
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="AN21" s="10"/>
       <c r="AO21" s="8"/>
       <c r="AP21" s="8">
         <f t="shared" si="45"/>
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="AQ21" s="10"/>
       <c r="AR21" s="8"/>
       <c r="AS21" s="8">
         <f t="shared" si="46"/>
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="AT21" s="10"/>
       <c r="AU21" s="8"/>
       <c r="AV21" s="8">
         <f t="shared" si="47"/>
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="AW21" s="10"/>
       <c r="AX21" s="8"/>
       <c r="AY21" s="8">
         <f t="shared" si="48"/>
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="AZ21" s="11">
         <f t="shared" si="49"/>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="BA21" s="11">
         <f t="shared" si="50"/>
-        <v>60</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="2:53" ht="45" x14ac:dyDescent="0.25">
@@ -2860,7 +2897,7 @@
         <v>42</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="G22" s="5">
         <v>60</v>
@@ -3090,106 +3127,106 @@
         <v>42</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="G24" s="5">
         <v>60</v>
       </c>
       <c r="H24" s="8"/>
       <c r="I24" s="8">
-        <f t="shared" ref="I24:I27" si="51">G24-H24</f>
+        <f t="shared" ref="I24:I26" si="51">G24-H24</f>
         <v>60</v>
       </c>
       <c r="J24" s="10"/>
       <c r="K24" s="8"/>
       <c r="L24" s="8">
-        <f t="shared" ref="L24:L27" si="52">I24-K24</f>
+        <f t="shared" ref="L24:L26" si="52">I24-K24</f>
         <v>60</v>
       </c>
       <c r="M24" s="10"/>
       <c r="N24" s="8"/>
       <c r="O24" s="8">
-        <f t="shared" ref="O24:O27" si="53">L24-N24</f>
+        <f t="shared" ref="O24:O26" si="53">L24-N24</f>
         <v>60</v>
       </c>
       <c r="P24" s="10"/>
       <c r="Q24" s="8"/>
       <c r="R24" s="8">
-        <f t="shared" ref="R24:R27" si="54">O24-Q24</f>
+        <f t="shared" ref="R24:R26" si="54">O24-Q24</f>
         <v>60</v>
       </c>
       <c r="S24" s="10"/>
       <c r="T24" s="8"/>
       <c r="U24" s="8">
-        <f t="shared" ref="U24:U27" si="55">R24-T24</f>
+        <f t="shared" ref="U24:U26" si="55">R24-T24</f>
         <v>60</v>
       </c>
       <c r="V24" s="10"/>
       <c r="W24" s="8"/>
       <c r="X24" s="8">
-        <f t="shared" ref="X24:X27" si="56">U24-W24</f>
+        <f t="shared" ref="X24:X26" si="56">U24-W24</f>
         <v>60</v>
       </c>
       <c r="Y24" s="10"/>
       <c r="Z24" s="8"/>
       <c r="AA24" s="8">
-        <f t="shared" ref="AA24:AA27" si="57">X24-Z24</f>
+        <f t="shared" ref="AA24:AA26" si="57">X24-Z24</f>
         <v>60</v>
       </c>
       <c r="AB24" s="10"/>
       <c r="AC24" s="8"/>
       <c r="AD24" s="8">
-        <f t="shared" ref="AD24:AD27" si="58">AA24-AC24</f>
+        <f t="shared" ref="AD24:AD26" si="58">AA24-AC24</f>
         <v>60</v>
       </c>
       <c r="AE24" s="10"/>
       <c r="AF24" s="8"/>
       <c r="AG24" s="8">
-        <f t="shared" ref="AG24:AG27" si="59">AD24-AF24</f>
+        <f t="shared" ref="AG24:AG26" si="59">AD24-AF24</f>
         <v>60</v>
       </c>
       <c r="AH24" s="10"/>
       <c r="AI24" s="8"/>
       <c r="AJ24" s="8">
-        <f t="shared" ref="AJ24:AJ27" si="60">AG24-AI24</f>
+        <f t="shared" ref="AJ24:AJ26" si="60">AG24-AI24</f>
         <v>60</v>
       </c>
       <c r="AK24" s="10"/>
       <c r="AL24" s="8"/>
       <c r="AM24" s="8">
-        <f t="shared" ref="AM24:AM27" si="61">AJ24-AL24</f>
+        <f t="shared" ref="AM24:AM26" si="61">AJ24-AL24</f>
         <v>60</v>
       </c>
       <c r="AN24" s="10"/>
       <c r="AO24" s="8"/>
       <c r="AP24" s="8">
-        <f t="shared" ref="AP24:AP27" si="62">AM24-AO24</f>
+        <f t="shared" ref="AP24:AP26" si="62">AM24-AO24</f>
         <v>60</v>
       </c>
       <c r="AQ24" s="10"/>
       <c r="AR24" s="8"/>
       <c r="AS24" s="8">
-        <f t="shared" ref="AS24:AS27" si="63">AP24-AR24</f>
+        <f t="shared" ref="AS24:AS26" si="63">AP24-AR24</f>
         <v>60</v>
       </c>
       <c r="AT24" s="10"/>
       <c r="AU24" s="8"/>
       <c r="AV24" s="8">
-        <f t="shared" ref="AV24:AV27" si="64">AS24-AU24</f>
+        <f t="shared" ref="AV24:AV26" si="64">AS24-AU24</f>
         <v>60</v>
       </c>
       <c r="AW24" s="10"/>
       <c r="AX24" s="8"/>
       <c r="AY24" s="8">
-        <f t="shared" ref="AY24:AY27" si="65">AV24-AX24</f>
+        <f t="shared" ref="AY24:AY26" si="65">AV24-AX24</f>
         <v>60</v>
       </c>
       <c r="AZ24" s="11">
-        <f t="shared" ref="AZ24:AZ27" si="66">H24+K24+N24+Q24+T24+W24+Z24+AC24+AF24+AI24+AL24+AO24+AR24+AU24+AX24</f>
+        <f t="shared" ref="AZ24:AZ26" si="66">H24+K24+N24+Q24+T24+W24+Z24+AC24+AF24+AI24+AL24+AO24+AR24+AU24+AX24</f>
         <v>0</v>
       </c>
       <c r="BA24" s="11">
-        <f t="shared" ref="BA24:BA27" si="67">G24-AZ24</f>
+        <f t="shared" ref="BA24:BA26" si="67">G24-AZ24</f>
         <v>60</v>
       </c>
     </row>
@@ -3203,7 +3240,7 @@
         <v>42</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="G25" s="5">
         <v>60</v>
@@ -3316,7 +3353,7 @@
         <v>42</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="G26" s="5">
         <v>60</v>
@@ -3419,222 +3456,109 @@
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="2:53" ht="45" x14ac:dyDescent="0.25">
-      <c r="B27" s="13"/>
+    <row r="27" spans="2:53" ht="30" x14ac:dyDescent="0.25">
+      <c r="B27" s="5"/>
       <c r="C27" s="5"/>
       <c r="D27" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E27" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="G27" s="5">
-        <v>60</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
       <c r="H27" s="8"/>
       <c r="I27" s="8">
-        <f t="shared" si="51"/>
-        <v>60</v>
+        <f t="shared" si="16"/>
+        <v>0</v>
       </c>
       <c r="J27" s="10"/>
       <c r="K27" s="8"/>
       <c r="L27" s="8">
-        <f t="shared" si="52"/>
-        <v>60</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="M27" s="10"/>
       <c r="N27" s="8"/>
       <c r="O27" s="8">
-        <f t="shared" si="53"/>
-        <v>60</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="P27" s="10"/>
       <c r="Q27" s="8"/>
       <c r="R27" s="8">
-        <f t="shared" si="54"/>
-        <v>60</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="S27" s="10"/>
       <c r="T27" s="8"/>
       <c r="U27" s="8">
-        <f t="shared" si="55"/>
-        <v>60</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="V27" s="10"/>
       <c r="W27" s="8"/>
       <c r="X27" s="8">
-        <f t="shared" si="56"/>
-        <v>60</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="Y27" s="10"/>
       <c r="Z27" s="8"/>
       <c r="AA27" s="8">
-        <f t="shared" si="57"/>
-        <v>60</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="AB27" s="10"/>
       <c r="AC27" s="8"/>
       <c r="AD27" s="8">
-        <f t="shared" si="58"/>
-        <v>60</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="AE27" s="10"/>
       <c r="AF27" s="8"/>
       <c r="AG27" s="8">
-        <f t="shared" si="59"/>
-        <v>60</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="AH27" s="10"/>
       <c r="AI27" s="8"/>
       <c r="AJ27" s="8">
-        <f t="shared" si="60"/>
-        <v>60</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="AK27" s="10"/>
       <c r="AL27" s="8"/>
       <c r="AM27" s="8">
-        <f t="shared" si="61"/>
-        <v>60</v>
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
       <c r="AN27" s="10"/>
       <c r="AO27" s="8"/>
       <c r="AP27" s="8">
-        <f t="shared" si="62"/>
-        <v>60</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
       <c r="AQ27" s="10"/>
       <c r="AR27" s="8"/>
       <c r="AS27" s="8">
-        <f t="shared" si="63"/>
-        <v>60</v>
+        <f t="shared" si="11"/>
+        <v>0</v>
       </c>
       <c r="AT27" s="10"/>
       <c r="AU27" s="8"/>
       <c r="AV27" s="8">
-        <f t="shared" si="64"/>
-        <v>60</v>
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="AW27" s="10"/>
       <c r="AX27" s="8"/>
       <c r="AY27" s="8">
-        <f t="shared" si="65"/>
-        <v>60</v>
-      </c>
-      <c r="AZ27" s="11">
-        <f t="shared" si="66"/>
-        <v>0</v>
-      </c>
-      <c r="BA27" s="11">
-        <f t="shared" si="67"/>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="28" spans="2:53" ht="30" x14ac:dyDescent="0.25">
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="J28" s="10"/>
-      <c r="K28" s="8"/>
-      <c r="L28" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M28" s="10"/>
-      <c r="N28" s="8"/>
-      <c r="O28" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P28" s="10"/>
-      <c r="Q28" s="8"/>
-      <c r="R28" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="S28" s="10"/>
-      <c r="T28" s="8"/>
-      <c r="U28" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="V28" s="10"/>
-      <c r="W28" s="8"/>
-      <c r="X28" s="8">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Y28" s="10"/>
-      <c r="Z28" s="8"/>
-      <c r="AA28" s="8">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AB28" s="10"/>
-      <c r="AC28" s="8"/>
-      <c r="AD28" s="8">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AE28" s="10"/>
-      <c r="AF28" s="8"/>
-      <c r="AG28" s="8">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AH28" s="10"/>
-      <c r="AI28" s="8"/>
-      <c r="AJ28" s="8">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AK28" s="10"/>
-      <c r="AL28" s="8"/>
-      <c r="AM28" s="8">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AN28" s="10"/>
-      <c r="AO28" s="8"/>
-      <c r="AP28" s="8">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AQ28" s="10"/>
-      <c r="AR28" s="8"/>
-      <c r="AS28" s="8">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AT28" s="10"/>
-      <c r="AU28" s="8"/>
-      <c r="AV28" s="8">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AW28" s="10"/>
-      <c r="AX28" s="8"/>
-      <c r="AY28" s="8">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AZ28" s="11" t="e">
-        <f>H28+K28+N28+Q28+T28+W28+Z28+AC28+AF28+AI28+AL28+AO28+AR28+AU28+AX28+#REF!+#REF!+#REF!+#REF!+#REF!</f>
+      <c r="AZ27" s="11" t="e">
+        <f>H27+K27+N27+Q27+T27+W27+Z27+AC27+AF27+AI27+AL27+AO27+AR27+AU27+AX27+#REF!+#REF!+#REF!+#REF!+#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="BA28" s="11" t="e">
+      <c r="BA27" s="11" t="e">
         <f t="shared" si="15"/>
         <v>#REF!</v>
       </c>

--- a/Juan/Reviciones/Plantilla_Lista_de_Tareas_de_la_revisión_3.xlsx
+++ b/Juan/Reviciones/Plantilla_Lista_de_Tareas_de_la_revisión_3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juuan\Desktop\6to semstre\Des. Software\Proyecto\EmpenioFacil\Juan\Reviciones\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1770C9CC-C58A-47BF-BE81-923260454281}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE260D4A-97A2-493E-80A5-C02A7F88CFF1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="16065" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -215,12 +215,6 @@
     <t>CU-P-EP</t>
   </si>
   <si>
-    <t>CU-C-RC</t>
-  </si>
-  <si>
-    <t>CU-C-BC</t>
-  </si>
-  <si>
     <t>Hecho</t>
   </si>
   <si>
@@ -228,6 +222,12 @@
   </si>
   <si>
     <t>En proceso</t>
+  </si>
+  <si>
+    <t>CU-CC-BC</t>
+  </si>
+  <si>
+    <t>CU-CC-RC</t>
   </si>
 </sst>
 </file>
@@ -415,17 +415,17 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -734,10 +734,10 @@
   <dimension ref="B1:BA27"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="6" ySplit="5" topLeftCell="G19" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="5" topLeftCell="G6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="F23" sqref="F23"/>
+      <selection pane="bottomRight" activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -818,84 +818,84 @@
       <c r="C4" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="H4" s="15" t="s">
+      <c r="H4" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="16"/>
+      <c r="I4" s="18"/>
       <c r="J4" s="9"/>
-      <c r="K4" s="15" t="s">
+      <c r="K4" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="L4" s="16"/>
+      <c r="L4" s="18"/>
       <c r="M4" s="9"/>
-      <c r="N4" s="15" t="s">
+      <c r="N4" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="16"/>
+      <c r="O4" s="18"/>
       <c r="P4" s="9"/>
-      <c r="Q4" s="15" t="s">
+      <c r="Q4" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="R4" s="16"/>
+      <c r="R4" s="18"/>
       <c r="S4" s="9"/>
-      <c r="T4" s="15" t="s">
+      <c r="T4" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="U4" s="16"/>
+      <c r="U4" s="18"/>
       <c r="V4" s="9"/>
-      <c r="W4" s="15" t="s">
+      <c r="W4" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="X4" s="16"/>
+      <c r="X4" s="18"/>
       <c r="Y4" s="9"/>
-      <c r="Z4" s="15" t="s">
+      <c r="Z4" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="AA4" s="16"/>
+      <c r="AA4" s="18"/>
       <c r="AB4" s="9"/>
-      <c r="AC4" s="15" t="s">
+      <c r="AC4" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="AD4" s="16"/>
+      <c r="AD4" s="18"/>
       <c r="AE4" s="9"/>
-      <c r="AF4" s="15" t="s">
+      <c r="AF4" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="AG4" s="16"/>
+      <c r="AG4" s="18"/>
       <c r="AH4" s="9"/>
-      <c r="AI4" s="15" t="s">
+      <c r="AI4" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="AJ4" s="16"/>
+      <c r="AJ4" s="18"/>
       <c r="AK4" s="9"/>
-      <c r="AL4" s="15" t="s">
+      <c r="AL4" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="AM4" s="16"/>
+      <c r="AM4" s="18"/>
       <c r="AN4" s="9"/>
-      <c r="AO4" s="15" t="s">
+      <c r="AO4" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="AP4" s="16"/>
+      <c r="AP4" s="18"/>
       <c r="AQ4" s="9"/>
-      <c r="AR4" s="15" t="s">
+      <c r="AR4" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="AS4" s="16"/>
+      <c r="AS4" s="18"/>
       <c r="AT4" s="9"/>
-      <c r="AU4" s="15" t="s">
+      <c r="AU4" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="AV4" s="16"/>
+      <c r="AV4" s="18"/>
       <c r="AW4" s="9"/>
-      <c r="AX4" s="15" t="s">
+      <c r="AX4" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="AY4" s="16"/>
-      <c r="AZ4" s="15" t="s">
+      <c r="AY4" s="18"/>
+      <c r="AZ4" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="BA4" s="16"/>
+      <c r="BA4" s="18"/>
     </row>
     <row r="5" spans="2:53" ht="30" x14ac:dyDescent="0.25">
       <c r="B5" s="6" t="s">
@@ -1041,7 +1041,7 @@
         <v>42</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G6" s="5">
         <v>60</v>
@@ -1156,7 +1156,7 @@
         <v>42</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G7" s="5">
         <v>60</v>
@@ -1271,7 +1271,7 @@
         <v>42</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G8" s="5">
         <v>60</v>
@@ -1390,7 +1390,7 @@
         <v>42</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G9" s="5">
         <v>60</v>
@@ -1505,7 +1505,7 @@
         <v>42</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G10" s="5">
         <v>60</v>
@@ -1620,7 +1620,7 @@
         <v>42</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G11" s="5">
         <v>60</v>
@@ -1739,7 +1739,7 @@
         <v>42</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G12" s="5">
         <v>60</v>
@@ -1854,7 +1854,7 @@
         <v>42</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G13" s="5">
         <v>60</v>
@@ -1969,7 +1969,7 @@
         <v>42</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G14" s="5">
         <v>60</v>
@@ -2088,7 +2088,7 @@
         <v>42</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G15" s="5">
         <v>60</v>
@@ -2203,7 +2203,7 @@
         <v>42</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G16" s="5">
         <v>60</v>
@@ -2318,7 +2318,7 @@
         <v>42</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G17" s="5">
         <v>60</v>
@@ -2425,7 +2425,7 @@
     </row>
     <row r="18" spans="2:53" ht="45" x14ac:dyDescent="0.25">
       <c r="B18" s="13" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>51</v>
@@ -2437,7 +2437,7 @@
         <v>42</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G18" s="5">
         <v>60</v>
@@ -2552,7 +2552,7 @@
         <v>42</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G19" s="5">
         <v>60</v>
@@ -2770,7 +2770,7 @@
     </row>
     <row r="21" spans="2:53" ht="45" x14ac:dyDescent="0.25">
       <c r="B21" s="13" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>52</v>
@@ -2782,7 +2782,7 @@
         <v>42</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G21" s="5">
         <v>60</v>
@@ -2897,7 +2897,7 @@
         <v>42</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G22" s="5">
         <v>60</v>
@@ -3114,10 +3114,10 @@
       </c>
     </row>
     <row r="24" spans="2:53" ht="45" x14ac:dyDescent="0.25">
-      <c r="B24" s="17" t="s">
+      <c r="B24" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="C24" s="18" t="s">
+      <c r="C24" s="16" t="s">
         <v>54</v>
       </c>
       <c r="D24" s="5" t="s">
@@ -3127,7 +3127,7 @@
         <v>42</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G24" s="5">
         <v>60</v>
@@ -3240,7 +3240,7 @@
         <v>42</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G25" s="5">
         <v>60</v>
@@ -3353,7 +3353,7 @@
         <v>42</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G26" s="5">
         <v>60</v>
@@ -3565,6 +3565,11 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="AZ4:BA4"/>
+    <mergeCell ref="AO4:AP4"/>
+    <mergeCell ref="AR4:AS4"/>
+    <mergeCell ref="AU4:AV4"/>
+    <mergeCell ref="AX4:AY4"/>
     <mergeCell ref="AL4:AM4"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="K4:L4"/>
@@ -3576,11 +3581,6 @@
     <mergeCell ref="AC4:AD4"/>
     <mergeCell ref="AF4:AG4"/>
     <mergeCell ref="AI4:AJ4"/>
-    <mergeCell ref="AZ4:BA4"/>
-    <mergeCell ref="AO4:AP4"/>
-    <mergeCell ref="AR4:AS4"/>
-    <mergeCell ref="AU4:AV4"/>
-    <mergeCell ref="AX4:AY4"/>
   </mergeCells>
   <pageMargins left="0.62992125984251968" right="0.62992125984251968" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>

--- a/Juan/Reviciones/Plantilla_Lista_de_Tareas_de_la_revisión_3.xlsx
+++ b/Juan/Reviciones/Plantilla_Lista_de_Tareas_de_la_revisión_3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juuan\Desktop\6to semstre\Des. Software\Proyecto\EmpenioFacil\Juan\Reviciones\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE260D4A-97A2-493E-80A5-C02A7F88CFF1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6847D0CB-0931-4F34-9897-3DD949803303}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="16065" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -442,6 +442,1300 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-MX"/>
+              <a:t>Métricas de tiempo  - Revisión 3 - Juan Carlos D</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-MX"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Minutos estimados</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Casos de Uso'!$D$6:$D$23</c:f>
+              <c:strCache>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>Descripcion de casos de uso</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Diagrama de robuztes</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Diagrama de secuencia</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Descripcion de casos de uso</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Diagrama de robuztes</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Diagrama de secuencia</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Descripcion de casos de uso</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Diagrama de robuztes</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Diagrama de secuencia</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Descripcion de casos de uso</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Diagrama de robuztes</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Diagrama de secuencia</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Descripcion de casos de uso</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Diagrama de robuztes</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Diagrama de secuencia</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Descripcion de casos de uso</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Diagrama de robuztes</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Diagrama de secuencia</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Casos de Uso'!$G$6:$G$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>60</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1C33-492C-8ACE-4B5D2C0BDF98}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Minutos invertidos</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Casos de Uso'!$D$6:$D$23</c:f>
+              <c:strCache>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>Descripcion de casos de uso</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Diagrama de robuztes</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Diagrama de secuencia</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Descripcion de casos de uso</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Diagrama de robuztes</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Diagrama de secuencia</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Descripcion de casos de uso</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Diagrama de robuztes</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Diagrama de secuencia</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Descripcion de casos de uso</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Diagrama de robuztes</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Diagrama de secuencia</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Descripcion de casos de uso</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Diagrama de robuztes</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Diagrama de secuencia</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Descripcion de casos de uso</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Diagrama de robuztes</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Diagrama de secuencia</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Casos de Uso'!$AZ$6:$AZ$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1C33-492C-8ACE-4B5D2C0BDF98}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="box"/>
+        <c:axId val="367985224"/>
+        <c:axId val="367979976"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="367985224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-MX"/>
+                  <a:t>Caso de usp</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-MX"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="367979976"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="367979976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-MX"/>
+                  <a:t>Minutos</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-MX"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="367985224"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-MX"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-MX"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>207817</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>299604</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>329045</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>484909</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5825E28D-4D9B-41F4-9010-52E4E253D0D8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -733,11 +2027,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:BA27"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="6" ySplit="5" topLeftCell="G6" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="55" zoomScaleSheetLayoutView="55" workbookViewId="0">
+      <pane xSplit="6" ySplit="5" topLeftCell="H6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="B19" sqref="B19"/>
+      <selection pane="bottomRight" activeCell="BA6" activeCellId="1" sqref="G6:G23 BA6:BA23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3589,6 +4883,7 @@
     <brk id="36" max="18" man="1"/>
     <brk id="53" max="18" man="1"/>
   </colBreaks>
+  <drawing r:id="rId2"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
